--- a/SoftwareTesting/Experiment3/Experiment3.xlsx
+++ b/SoftwareTesting/Experiment3/Experiment3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14040"/>
+    <workbookView windowWidth="28800" windowHeight="11660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>测试用例</t>
   </si>
@@ -400,9 +400,6 @@
     <t>acde</t>
   </si>
   <si>
-    <t>-T1 T2</t>
-  </si>
-  <si>
     <t>cde</t>
   </si>
   <si>
@@ -415,7 +412,7 @@
     <t>acdfg</t>
   </si>
   <si>
-    <t>-T1 -T2 T3</t>
+    <t>-T1, -T2, T3</t>
   </si>
   <si>
     <t>cdfg</t>
@@ -427,7 +424,7 @@
     <t>acdfhj</t>
   </si>
   <si>
-    <t>-T1 -T2 -T3 T4</t>
+    <t>-T1, -T2, -T3, T4</t>
   </si>
   <si>
     <t>cdfhj</t>
@@ -442,7 +439,7 @@
     <t>acdfhi</t>
   </si>
   <si>
-    <t>-T1 -T2                -T3 -T4</t>
+    <t>-T1, -T2,                -T3, -T4</t>
   </si>
   <si>
     <t>cdfhi</t>
@@ -502,9 +499,6 @@
     <t>abdfh</t>
   </si>
   <si>
-    <t>T1 -T2</t>
-  </si>
-  <si>
     <t>bdfh</t>
   </si>
   <si>
@@ -517,7 +511,7 @@
     <t>abdgi</t>
   </si>
   <si>
-    <t>T1 T2</t>
+    <t>T1, T2</t>
   </si>
   <si>
     <t>bdgi</t>
@@ -532,9 +526,6 @@
     <t>acefh</t>
   </si>
   <si>
-    <t>-T1 -T2</t>
-  </si>
-  <si>
     <t>cefh</t>
   </si>
   <si>
@@ -580,7 +571,7 @@
     <t>prodectList != null                            pu != null                              !pu.getSuperuser().equals("3")</t>
   </si>
   <si>
-    <t>-T1 -T2 -T3</t>
+    <t>-T1, -T2, -T3</t>
   </si>
   <si>
     <t>ShopCartServlet.addtoShopCart</t>
@@ -654,10 +645,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -689,39 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +690,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,22 +713,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,50 +815,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -834,37 +825,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,155 +999,77 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1052,26 +1097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,171 +1131,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,18 +1281,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1609,1223 +1618,1281 @@
   <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.8671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="21.1015625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.0546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5390625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="21.1015625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="2:7">
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="17" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="2:7">
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="28" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="2:7">
-      <c r="B4" s="1" t="s">
+    <row r="4" ht="28" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="2:7">
-      <c r="B6" s="1" t="s">
+    <row r="6" ht="28" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="2:7">
-      <c r="B7" s="1" t="s">
+    <row r="7" ht="28" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="84" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="84" spans="2:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="84" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="84" spans="2:7">
-      <c r="B10" s="1" t="s">
+    <row r="10" ht="84" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="84" spans="2:7">
-      <c r="B11" s="1" t="s">
+    <row r="11" ht="84" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="84" spans="2:7">
-      <c r="B12" s="1" t="s">
+    <row r="12" ht="84" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="84" spans="2:7">
-      <c r="B13" s="1" t="s">
+    <row r="13" ht="84" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="84" spans="2:7">
-      <c r="B14" s="1" t="s">
+    <row r="14" ht="84" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="84" spans="2:7">
-      <c r="B16" s="1" t="s">
+    <row r="16" ht="84" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="84" spans="2:7">
-      <c r="B17" s="1" t="s">
+    <row r="17" ht="84" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" ht="84" spans="2:7">
-      <c r="B18" s="1" t="s">
+    <row r="18" ht="84" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="84" spans="2:7">
-      <c r="B19" s="1" t="s">
+    <row r="19" ht="84" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="84" spans="2:7">
-      <c r="B20" s="1" t="s">
+    <row r="20" ht="84" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="84" spans="2:7">
-      <c r="B21" s="1" t="s">
+    <row r="21" ht="84" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" ht="70" spans="2:7">
-      <c r="B23" s="1" t="s">
+    <row r="23" ht="70" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" ht="70" spans="2:7">
-      <c r="B24" s="1" t="s">
+    <row r="24" ht="70" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" ht="70" spans="2:7">
-      <c r="B25" s="1" t="s">
+    <row r="25" ht="70" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" ht="70" spans="2:7">
-      <c r="B26" s="1" t="s">
+    <row r="26" ht="70" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" ht="70" spans="2:7">
-      <c r="B27" s="1" t="s">
+    <row r="27" ht="70" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="84" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" ht="84" spans="2:7">
-      <c r="B29" s="1" t="s">
+    <row r="29" ht="84" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" ht="84" spans="2:7">
-      <c r="B30" s="1" t="s">
+    <row r="30" ht="84" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" ht="84" spans="2:7">
-      <c r="B31" s="1" t="s">
+    <row r="31" ht="84" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" ht="84" spans="2:7">
-      <c r="B32" s="1" t="s">
+    <row r="32" ht="84" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" ht="84" spans="2:7">
-      <c r="B33" s="1" t="s">
+    <row r="33" ht="84" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" ht="84" spans="2:7">
-      <c r="B34" s="1" t="s">
+    <row r="34" ht="84" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" ht="42" spans="1:7">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="28" spans="1:7">
+      <c r="A35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" ht="34" spans="2:7">
-      <c r="B36" s="1" t="s">
+    <row r="36" ht="34" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" ht="42" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" ht="42" spans="2:7">
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" ht="56" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" ht="56" spans="2:7">
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" ht="56" spans="1:7">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" ht="56" spans="2:7">
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="34" spans="1:7">
+      <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="34" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" ht="34" spans="1:7">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" ht="51" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" ht="34" spans="2:7">
-      <c r="B41" s="1" t="s">
+      <c r="E42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" ht="34" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" ht="51" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="F43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" ht="68" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" ht="51" spans="1:7">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" ht="84" spans="1:7">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" ht="51" spans="1:7">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" ht="28" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" ht="34" spans="2:7">
-      <c r="B43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" ht="34" spans="1:7">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" ht="48" spans="1:7">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" ht="42" spans="1:7">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" ht="34" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" ht="34" spans="1:7">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" ht="34" spans="1:7">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" ht="28" spans="1:7">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" ht="51" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" ht="101" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" ht="68" spans="2:7">
-      <c r="B45" s="1" t="s">
+      <c r="E56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" ht="65" spans="1:7">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" ht="42" spans="1:7">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" ht="101" spans="2:7">
-      <c r="B46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" ht="68" spans="2:7">
-      <c r="B47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" ht="42" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" ht="51" spans="2:7">
-      <c r="B49" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" ht="48" spans="2:7">
-      <c r="B50" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" ht="51" spans="2:7">
-      <c r="B51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" ht="56" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" ht="34" spans="2:7">
-      <c r="B53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" ht="34" spans="2:7">
-      <c r="B54" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" ht="28" spans="2:7">
-      <c r="B55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" ht="65" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" ht="65" spans="2:7">
-      <c r="B57" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" ht="42" spans="2:7">
-      <c r="B58" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A58"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>